--- a/数据整理/stocks/A股/科创板/688550-瑞联新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688550-瑞联新材.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>41.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688550-瑞联新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688550-瑞联新材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.35</v>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688550-瑞联新材.xlsx
+++ b/数据整理/stocks/A股/科创板/688550-瑞联新材.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,6 +453,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -504,32 +588,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>162204</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>泰达宏利行业精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>79.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5204</t>
+          <t>0.1598</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -542,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.35</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>39.02</t>
+          <t>79.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5046</t>
+          <t>0.0556</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -580,36 +664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006845</t>
+          <t>013280</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投聚利混合C</t>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39.02</t>
+          <t>79.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0398</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -996,32 +1080,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162204</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利行业精选混合</t>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>16.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.70</t>
+          <t>89.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1598</t>
+          <t>0.5204</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1034,36 +1118,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>001914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>中信建投聚利混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>18.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.84</t>
+          <t>39.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0556</t>
+          <t>0.5046</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1072,120 +1156,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013280</t>
+          <t>006845</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合C</t>
+          <t>中信建投聚利混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.84</t>
+          <t>39.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0398</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.03</v>
       </c>
     </row>
   </sheetData>
